--- a/Docs/BOM-V4.xlsx
+++ b/Docs/BOM-V4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shurik\Dropbox\Robotics\eagle\projects\RoverWing\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shurik\Dropbox\Robotics\RoverWing\RoverWingHardware\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{465B8C77-DD84-4336-8CCA-EB35D041E6AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBBCEA9-72F7-41C5-B7B2-9F6625BB80BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="5620"/>
+    <workbookView xWindow="2904" yWindow="1188" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM-V4" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="246">
   <si>
     <t>Qty</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Pkg Code</t>
-  </si>
-  <si>
     <t>Min quantity</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>CAP ALUM 220uF 20% 35V SMD</t>
   </si>
   <si>
-    <t>8x10.5</t>
-  </si>
-  <si>
     <t>https://lcsc.com/product-detail/Others_Semtech-CKF1V221M0810_C263948.html</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>C2, C6, C7</t>
   </si>
   <si>
-    <t>Samsung</t>
-  </si>
-  <si>
     <t>C45783</t>
   </si>
   <si>
@@ -175,9 +166,6 @@
     <t xml:space="preserve">CAP CER 0.1UF 50V </t>
   </si>
   <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
     <t>https://lcsc.com/product-detail/Others_Guangdong-Fenghua-Advanced-Tech-0805B104M500NT_C286511.html</t>
   </si>
   <si>
@@ -280,9 +268,6 @@
     <t>DK</t>
   </si>
   <si>
-    <t>455-1639-ND</t>
-  </si>
-  <si>
     <t>CONN HEADER VH TOP 2POS 3.96MM</t>
   </si>
   <si>
@@ -307,9 +292,6 @@
     <t>CONN HEADER PH TOP 3POS 2MM</t>
   </si>
   <si>
-    <t>PTH</t>
-  </si>
-  <si>
     <t>https://lcsc.com/product-detail/PCB-Connectors-Headers-Male-Pins_JST-Sales-America_B3B-PH-K-S-LF-SN_JST-Sales-America-B3B-PH-K-S-LF-SN_C131339.html</t>
   </si>
   <si>
@@ -418,9 +400,6 @@
     <t>J4, J5, J6, J7, J8, J9, J10</t>
   </si>
   <si>
-    <t>455-1706-ND</t>
-  </si>
-  <si>
     <t>CONN HEADER PH TOP 4POS 2MM</t>
   </si>
   <si>
@@ -442,9 +421,6 @@
     <t>Power Inductors 4.7uH Â±20% 5.6A</t>
   </si>
   <si>
-    <t>7.1x6.5mm</t>
-  </si>
-  <si>
     <t>https://lcsc.com/product-detail/Power-Inductors_TDK_SPM6530T-4R7M_TDK-SPM6530T-4R7M_C76857.html</t>
   </si>
   <si>
@@ -514,12 +490,6 @@
     <t>Resistor Networks &amp; Arrays 2.7KOhms Â±5% 1/16W 0603_x4</t>
   </si>
   <si>
-    <t>0603_x4</t>
-  </si>
-  <si>
-    <t>2.7k</t>
-  </si>
-  <si>
     <t>https://lcsc.com/product-detail/Resistor-Networks-Arrays_2-7KR-272-5_C102660.html</t>
   </si>
   <si>
@@ -595,9 +565,6 @@
     <t>Tactile Switches SPST 4.50mm x 4.50mm 0.90mm 50mA @ 12VDC SMD RoHS</t>
   </si>
   <si>
-    <t>SMD</t>
-  </si>
-  <si>
     <t>https://lcsc.com/product-detail/Tactile-Switches_BRIGHT-TSA453G38-250_C294494.html</t>
   </si>
   <si>
@@ -619,9 +586,6 @@
     <t>IC MCU 32BIT 256KB FLASH 48TQFP</t>
   </si>
   <si>
-    <t>48TQFP</t>
-  </si>
-  <si>
     <t>PMIC-MP2225</t>
   </si>
   <si>
@@ -643,9 +607,6 @@
     <t>DC-DC Converters Step-Down Adjustable 1 4.5V 18V 0.6V 17V 5A TSOT-23-8Â </t>
   </si>
   <si>
-    <t>TSOT23-8</t>
-  </si>
-  <si>
     <t>https://lcsc.com/product-detail/DC-DC-Converters_MPS_MP2225GJ-Z_MP2225GJ-Z_C133066.html</t>
   </si>
   <si>
@@ -670,9 +631,6 @@
     <t>Low Dropout Regulators(LDO) Positive Fixed 1.3V @ 1A 13V 3.3V 1AÂ </t>
   </si>
   <si>
-    <t>SOT-223</t>
-  </si>
-  <si>
     <t>https://lcsc.com/product-detail/Low-Dropout-Regulators-LDO_DIODES_AZ1117EH-3-3TRG1_AZ1117EH-3-3TRG1_C108494.html</t>
   </si>
   <si>
@@ -694,9 +652,6 @@
     <t>IMU ACCEL/GYRO 3-AXIS I2C 24QFN</t>
   </si>
   <si>
-    <t>24QFN</t>
-  </si>
-  <si>
     <t>https://lcsc.com/product-detail/Attitude-Sensors_TDK-InvenSense_MPU-6050_TDK-InvenSense-MPU-6050_C24112.html</t>
   </si>
   <si>
@@ -721,9 +676,6 @@
     <t>Motor Drivers SO-8 RoHS</t>
   </si>
   <si>
-    <t>SO-8</t>
-  </si>
-  <si>
     <t>https://lcsc.com/product-detail/Motor-Drivers_TI_DRV8871DDAR_DRV8871DDAR_C75864.html</t>
   </si>
   <si>
@@ -742,9 +694,6 @@
     <t>Level Translators,  Shifters TSSOP-14 RoHS</t>
   </si>
   <si>
-    <t>TSSOP-14</t>
-  </si>
-  <si>
     <t>https://lcsc.com/product-detail/Interface-ICs_TI_TXS0104EPWR_TXS0104EPWR_C44955.html</t>
   </si>
   <si>
@@ -766,9 +715,6 @@
     <t>74 Series Buffer, Non-Inverting 4.5V ~ 5.5V SOT-23-5 RoHS</t>
   </si>
   <si>
-    <t>SOT-23-5</t>
-  </si>
-  <si>
     <t>https://lcsc.com/product-detail/74-Series_TI_SN74AHCT1G125DBVR_SN74AHCT1G125DBVR_C7484.html</t>
   </si>
   <si>
@@ -791,13 +737,34 @@
   </si>
   <si>
     <t>CONN USB MICRO B RECPT SMT R/A</t>
+  </si>
+  <si>
+    <t>RES SMD 40.2KOhms ±1% 1/8W 0805 RoHS</t>
+  </si>
+  <si>
+    <t>RC0805FR-0740K2L</t>
+  </si>
+  <si>
+    <t>RES SMD 5.49KOhms ±1% 1/8W 0805 RoHS</t>
+  </si>
+  <si>
+    <t>RC0805FR-075K49L</t>
+  </si>
+  <si>
+    <t>C273977</t>
+  </si>
+  <si>
+    <t>C160257</t>
+  </si>
+  <si>
+    <t>C160315</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,6 +914,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1245,7 +1226,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1288,15 +1269,18 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1330,6 +1314,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1649,28 +1634,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="3.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="3.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="14.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.08984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="8.77734375" style="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1698,1563 +1683,1351 @@
       <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1">
-        <v>5</v>
-      </c>
-      <c r="M2" s="1">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="J3" s="1">
+        <v>50</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.52E-2</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1">
         <v>50</v>
       </c>
-      <c r="M3" s="1">
-        <v>1.52E-2</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="1">
+        <v>1.35E-2</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="1">
-        <v>50</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1.35E-2</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="J5" s="1">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.12239999999999999</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="1">
-        <v>5</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.12239999999999999</v>
-      </c>
-      <c r="N5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="B6" s="1">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1">
         <v>50</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="K6" s="1">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="1">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="N6" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="J7" s="1">
+        <v>50</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.23E-2</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="1">
-        <v>50</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1.23E-2</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="1">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="G9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="1">
         <v>20</v>
       </c>
-      <c r="M8" s="1">
-        <v>2.0299999999999999E-2</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="K9" s="1">
+        <v>2.76E-2</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="1">
         <v>20</v>
       </c>
-      <c r="M9" s="1">
-        <v>2.76E-2</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="K10" s="1">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" s="1">
-        <v>20</v>
-      </c>
-      <c r="M10" s="1">
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="N10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.1454</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.1201</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.26550000000000001</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="1">
-        <v>5</v>
-      </c>
-      <c r="M12" s="1">
-        <v>9.9699999999999997E-2</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.1454</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0.1201</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0.26550000000000001</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="J18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="B19" s="1">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="J19" s="1">
+        <v>10</v>
+      </c>
+      <c r="K19" s="1">
+        <v>5.91E-2</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="F20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" s="1">
+        <v>10</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.1082</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="L20" s="1">
-        <v>10</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0.1082</v>
-      </c>
-      <c r="N20" s="2" t="s">
+      <c r="J21" s="1">
+        <v>5</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.1145</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" s="2" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" s="1">
-        <v>5</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0.1145</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" s="1">
+        <v>50</v>
+      </c>
+      <c r="K22" s="1">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="2" t="s">
+      <c r="H23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="L22" s="1">
+      <c r="J23" s="1">
         <v>50</v>
       </c>
-      <c r="M22" s="1">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="N22" s="2" t="s">
+      <c r="K23" s="1">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" t="s">
+        <v>239</v>
+      </c>
+      <c r="E24" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" t="s">
+        <v>241</v>
+      </c>
+      <c r="E25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J25" s="1">
+        <v>50</v>
+      </c>
+      <c r="K25" s="1">
+        <v>3.8E-3</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L23" s="1">
-        <v>50</v>
-      </c>
-      <c r="M23" s="1">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="B26" s="1">
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L26" s="1">
+        <v>164</v>
+      </c>
+      <c r="J26" s="1">
         <v>50</v>
       </c>
-      <c r="M26" s="1">
+      <c r="K26" s="1">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L26" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B27" s="1">
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J27" s="1">
+        <v>50</v>
+      </c>
+      <c r="K27" s="1">
+        <v>4.3E-3</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J28" s="1">
+        <v>20</v>
+      </c>
+      <c r="K28" s="1">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="L27" s="1">
-        <v>50</v>
-      </c>
-      <c r="M27" s="1">
-        <v>4.3E-3</v>
-      </c>
-      <c r="N27" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="G29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L28" s="1">
-        <v>20</v>
-      </c>
-      <c r="M28" s="1">
-        <v>2.5399999999999999E-2</v>
-      </c>
-      <c r="N28" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="H30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J30" s="1">
+        <v>10</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="G31" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5</v>
+      </c>
+      <c r="K31" s="1">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D30" s="2" t="s">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L30" s="1">
-        <v>10</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0.32140000000000002</v>
-      </c>
-      <c r="N30" s="2" t="s">
+      <c r="H32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>2.8835000000000002</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="2" t="s">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L31" s="1">
-        <v>5</v>
-      </c>
-      <c r="M31" s="1">
-        <v>8.1299999999999997E-2</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L32" s="1">
-        <v>1</v>
-      </c>
-      <c r="M32" s="1">
-        <v>2.8835000000000002</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.69340000000000002</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="F35" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J35" s="1">
+        <v>5</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.12809999999999999</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="J33" s="2" t="s">
+      <c r="D36" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L33" s="1">
-        <v>1</v>
-      </c>
-      <c r="M33" s="1">
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="N33" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="G36" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L34" s="1">
-        <v>1</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0.69340000000000002</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L35" s="1">
-        <v>5</v>
-      </c>
-      <c r="M35" s="1">
-        <v>0.12809999999999999</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>79</v>
+      <c r="J36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I19" r:id="rId1" display="https://lcsc.com/product-detail/PH-Connectors_JST-Sales-America__JST-Sales-America-PHseries-socket-1-4P-pitch2mm_C160257.html" xr:uid="{16C4D380-BC5B-4FAA-939C-E138E83B1DEE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>